--- a/medicine/Handicap/La_Ligne_droite_(film,_2011)/La_Ligne_droite_(film,_2011).xlsx
+++ b/medicine/Handicap/La_Ligne_droite_(film,_2011)/La_Ligne_droite_(film,_2011).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Ligne droite est un film français réalisé par Régis Wargnier, sorti en 2011. Il traite de l'athlétisme handisport.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Leïla sort de prison après cinq années d'enfermement. Elle va rencontrer Yannick, un jeune athlète devenu aveugle après un accident. Ce dernier pratique la course malgré son handicap, mais pour courir il doit être relié par un fil à une personne appelée guide. Il propose à Leïla d'être son guide. À travers ce projet, ils vont apprendre à se reconstruire.
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : La Ligne droite
 Réalisation : Régis Wargnier
@@ -584,7 +600,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Rachida Brakni : Leïla
 Cyril Descours : Yannick
@@ -622,9 +640,11 @@
           <t>Tournage</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une des scènes du film a été tournée dans le cimetière de bateaux de Landévennec (Finistère)[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une des scènes du film a été tournée dans le cimetière de bateaux de Landévennec (Finistère).
 </t>
         </is>
       </c>
